--- a/市场记录.xlsx
+++ b/市场记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamje\PycharmProjects\Astock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D79AD51-EA52-40A0-B560-090A2591ABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362E61E-66F6-4D85-A382-F73B60A8F9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{30761EA2-99A6-4810-8071-52BF4129E010}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美格智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,18 +131,50 @@
     <t>浙江东方</t>
   </si>
   <si>
+    <t>51e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>杭钢股份</t>
-  </si>
-  <si>
-    <t>51e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱分歧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高潮</t>
+  </si>
+  <si>
+    <t>云计算【29涨停】+华为算力【15涨停】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepseek【11涨停】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2we</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,17 +542,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075B259-066B-496E-93FD-FA67F8044B0C}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
@@ -584,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -619,24 +647,27 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45695</v>
       </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -651,15 +682,50 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45698</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45699</v>
       </c>
     </row>
   </sheetData>

--- a/市场记录.xlsx
+++ b/市场记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamje\PycharmProjects\Astock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362E61E-66F6-4D85-A382-F73B60A8F9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0567EA0-D0D5-478E-B227-E877822E898F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{30761EA2-99A6-4810-8071-52BF4129E010}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>deepseek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>弱分歧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +179,42 @@
   </si>
   <si>
     <t>2we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.67we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能+阿里相关+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片 or 汽车零部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075B259-066B-496E-93FD-FA67F8044B0C}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -658,7 +698,7 @@
         <v>45695</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -667,7 +707,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -693,25 +733,25 @@
         <v>45698</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -726,6 +766,71 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45699</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/市场记录.xlsx
+++ b/市场记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamje\PycharmProjects\Astock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0567EA0-D0D5-478E-B227-E877822E898F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09063301-BB96-4978-B0F1-FE084A7A489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{30761EA2-99A6-4810-8071-52BF4129E010}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,22 @@
   </si>
   <si>
     <t>84e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱分歧（高低切）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075B259-066B-496E-93FD-FA67F8044B0C}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -833,6 +849,41 @@
         <v>45</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
